--- a/OwlBusinessStudio/bin/Debug/Resources/bill.xlsx
+++ b/OwlBusinessStudio/bin/Debug/Resources/bill.xlsx
@@ -85,9 +85,6 @@
     <t>Плательщик: Алла Фатюшкина  , г. Мурманск Тел. 8 950 891 00 22  , эл.почта Savenkovaalla@mail.ru</t>
   </si>
   <si>
-    <t>Грузополучатель: ТК ПЭК</t>
-  </si>
-  <si>
     <t>Всего наименований 4, на сумму 6547,5</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>СЧЕТ № 0203 от 24 марта 2014г</t>
+  </si>
+  <si>
+    <t>Грузополучатель: ТК Деловые Линии</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,9 +264,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -309,47 +306,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,54 +770,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="17"/>
-    <col min="7" max="8" width="17.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="17"/>
-    <col min="10" max="10" width="10.33203125" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.33203125" style="17"/>
+    <col min="1" max="1" width="2.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="16"/>
+    <col min="7" max="8" width="17.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="16"/>
+    <col min="10" max="10" width="10.33203125" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="10.33203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
@@ -833,128 +830,128 @@
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="B11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="2:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="B16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="18" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
@@ -964,15 +961,15 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:8" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -985,46 +982,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+    <row r="20" spans="2:8" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="24"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="G21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="23">
-        <f>SUM(H20:H20)</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="8">
-        <f>H21*(100-H22)/100</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -1035,26 +1026,26 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
@@ -1089,15 +1080,15 @@
       <c r="H30" s="1"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
+      <c r="B42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
